--- a/98_output/experimento_029_paquetes/coalicion_resumen_median.xlsx
+++ b/98_output/experimento_029_paquetes/coalicion_resumen_median.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Coalicion</t>
   </si>
@@ -20,22 +20,25 @@
     <t xml:space="preserve">Asientos_ganados</t>
   </si>
   <si>
-    <t xml:space="preserve">CHV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Humanista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC-FA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UC</t>
+    <t xml:space="preserve">AprueboDignidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListaApruebo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VamosCh</t>
   </si>
 </sst>
 </file>
@@ -380,7 +383,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -404,7 +407,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -412,7 +415,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -420,7 +423,15 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>69</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
